--- a/Dataset/Folds/Fold_2/Excel/66.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="792">
   <si>
     <t>Doi</t>
   </si>
@@ -2416,6 +2416,333 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                          Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                          Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                          Elena%Del Fante%edelfante@hotmail.it%1,                          Rosanna%De Pace%Rosannadepace@libero.it%1,                          Antonino%Urso%antonino.urso@tin.it%1,                          Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                           Berta%Ausín%NULL%1,                           Miguel Ángel%Castellanos%NULL%1,                           Jesús%Saiz%NULL%1,                           Aída%López-Gómez%NULL%1,                           Carolina%Ugidos%NULL%1,                           Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                           Riyu%Pan%NULL%0,                           Riyu%Pan%NULL%0,                           Xiaoyang%Wan%NULL%0,                           Yilin%Tan%NULL%0,                           Linkang%Xu%NULL%0,                           Cyrus S.%Ho%NULL%0,                           Roger C.%Ho%NULL%0,                           Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                           Qian%Xia%NULL%1,                           Zhenzhen%Xiong%NULL%1,                           Zhixiong%Li%NULL%1,                           Weiyi%Xiang%NULL%1,                           Yiwen%Yuan%NULL%1,                           Yaya%Liu%NULL%1,                           Zhe%Li%NULL%1,                           Kenji%Hashimoto%NULL%0,                           Kenji%Hashimoto%NULL%0,                           Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                           Jun%Wang%NULL%1,                           Chenggang%Luo%NULL%1,                           Sheng%Hu%NULL%1,                           Xi%Lin%NULL%1,                           Aimee E.%Anderson%NULL%1,                           Eduardo%Bruera%NULL%1,                           Xiaoxin%Yang%NULL%1,                           Shaozhong%Wei%NULL%1,                           Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                           Zheng Feei%Ma%NULL%0,                           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                           Riyu%Pan%NULL%0,                           Xiaoyang%Wan%NULL%0,                           Yilin%Tan%NULL%0,                           Linkang%Xu%NULL%0,                           Roger S.%McIntyre%NULL%1,                           Faith N.%Choo%NULL%1,                           Bach%Tran%NULL%1,                           Roger%Ho%NULL%1,                           Vijay K.%Sharma%NULL%0,                           Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                           Ariella%Grossman-Giron%NULL%1,                           Yuval%Bloch%NULL%1,                           Yael%Mayer%NULL%1,                           Noga%Shiffman%NULL%1,                           Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                           Philip J.%Corr%NULL%2,                           Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                           Li-Gang%Zhang%NULL%1,                           Lei-Lei%Wang%NULL%1,                           Zhao-Chang%Guo%NULL%1,                           Jing-Qi%Wang%NULL%1,                           Jin-Cheng%Chen%NULL%1,                           Mei%Liu%NULL%1,                           Xi%Chen%NULL%1,                           Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                           Baoren%Tu%NULL%0,                           Jing%Ma%NULL%0,                           Limin%Chen%NULL%0,                           Lei%Fu%NULL%0,                           Yongfang%Jiang%NULL%0,                           Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                           Xiaoming%Huang%NULL%1,                           Shuai%Zhang%NULL%1,                           Jinrong%Yang%NULL%1,                           Lin%Yang%NULL%0,                           Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                           Zhenxin%Liao%NULL%0,                           Haojie%Huang%NULL%0,                           Boyue%Jiang%NULL%0,                           Xueyan%Zhang%NULL%0,                           Yingwen%Wang%NULL%0,                           Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                           Simeng%Ma%NULL%0,                           Min%Chen%NULL%0,                           Jun%Yang%NULL%0,                           Ying%Wang%NULL%0,                           Ruiting%Li%NULL%0,                           Lihua%Yao%NULL%0,                           Hanping%Bai%NULL%0,                           Zhongxiang%Cai%NULL%0,                           Bing%Xiang Yang%NULL%0,                           Shaohua%Hu%NULL%0,                           Kerang%Zhang%NULL%0,                           Gaohua%Wang%NULL%0,                           Ci%Ma%NULL%0,                           Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                           Ziwei%Fang%NULL%0,                           Guoqiang%Hou%NULL%0,                           Mei%Han%NULL%0,                           Xinrong%Xu%NULL%0,                           Jiaxin%Dong%NULL%0,                           Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                           Simeng%Ma%NULL%0,                           Ying%Wang%NULL%0,                           Zhongxiang%Cai%NULL%0,                           Jianbo%Hu%NULL%0,                           Ning%Wei%NULL%0,                           Jiang%Wu%NULL%0,                           Hui%Du%NULL%0,                           Tingting%Chen%NULL%0,                           Ruiting%Li%NULL%0,                           Huawei%Tan%NULL%0,                           Lijun%Kang%NULL%0,                           Lihua%Yao%NULL%0,                           Manli%Huang%NULL%0,                           Huafen%Wang%NULL%0,                           Gaohua%Wang%NULL%0,                           Zhongchun%Liu%NULL%0,                           Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                           Lan%Deng%NULL%0,                           Lan%Deng%NULL%0,                           Liyan%Zhang%NULL%0,                           Qiuyan%Lang%NULL%0,                           Chunyan%Liao%NULL%0,                           Nannan%Wang%NULL%0,                           Mingqin%Qin%2026142822@qq.com%0,                           Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                           Yilin%Wang%NULL%1,                           Jia%Xue%NULL%1,                           Nan%Zhao%NULL%1,                           Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                           Yun-zhi%Yang%NULL%1,                           Xiao-Ming%Zhang%NULL%1,                           Xinying%Xu%NULL%2,                           Xinying%Xu%NULL%0,                           Qing-Li%Dou%NULL%1,                           Wen-Wu%Zhang%NULL%1,                           Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                           Yan%Zhang%NULL%0,                           Desheng%Kong%NULL%0,                           Shiyue%Li%NULL%0,                           Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                           Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                           Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                           Elena%Del Fante%edelfante@hotmail.it%1,                           Rosanna%De Pace%Rosannadepace@libero.it%1,                           Antonino%Urso%antonino.urso@tin.it%1,                           Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                            Berta%Ausín%NULL%1,                            Miguel Ángel%Castellanos%NULL%1,                            Jesús%Saiz%NULL%1,                            Aída%López-Gómez%NULL%1,                            Carolina%Ugidos%NULL%1,                            Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                            Riyu%Pan%NULL%0,                            Riyu%Pan%NULL%0,                            Xiaoyang%Wan%NULL%0,                            Yilin%Tan%NULL%0,                            Linkang%Xu%NULL%0,                            Cyrus S.%Ho%NULL%0,                            Roger C.%Ho%NULL%0,                            Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                            Qian%Xia%NULL%1,                            Zhenzhen%Xiong%NULL%1,                            Zhixiong%Li%NULL%1,                            Weiyi%Xiang%NULL%1,                            Yiwen%Yuan%NULL%1,                            Yaya%Liu%NULL%1,                            Zhe%Li%NULL%1,                            Kenji%Hashimoto%NULL%0,                            Kenji%Hashimoto%NULL%0,                            Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                            Jun%Wang%NULL%1,                            Chenggang%Luo%NULL%1,                            Sheng%Hu%NULL%1,                            Xi%Lin%NULL%1,                            Aimee E.%Anderson%NULL%1,                            Eduardo%Bruera%NULL%1,                            Xiaoxin%Yang%NULL%1,                            Shaozhong%Wei%NULL%1,                            Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                            Zheng Feei%Ma%NULL%0,                            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                            Riyu%Pan%NULL%0,                            Xiaoyang%Wan%NULL%0,                            Yilin%Tan%NULL%0,                            Linkang%Xu%NULL%0,                            Roger S.%McIntyre%NULL%1,                            Faith N.%Choo%NULL%1,                            Bach%Tran%NULL%1,                            Roger%Ho%NULL%1,                            Vijay K.%Sharma%NULL%0,                            Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                            Ariella%Grossman-Giron%NULL%1,                            Yuval%Bloch%NULL%1,                            Yael%Mayer%NULL%1,                            Noga%Shiffman%NULL%1,                            Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                            Philip J.%Corr%NULL%2,                            Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                            Li-Gang%Zhang%NULL%1,                            Lei-Lei%Wang%NULL%1,                            Zhao-Chang%Guo%NULL%1,                            Jing-Qi%Wang%NULL%1,                            Jin-Cheng%Chen%NULL%1,                            Mei%Liu%NULL%1,                            Xi%Chen%NULL%1,                            Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                            Baoren%Tu%NULL%0,                            Jing%Ma%NULL%0,                            Limin%Chen%NULL%0,                            Lei%Fu%NULL%0,                            Yongfang%Jiang%NULL%0,                            Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                            Xiaoming%Huang%NULL%1,                            Shuai%Zhang%NULL%1,                            Jinrong%Yang%NULL%1,                            Lin%Yang%NULL%0,                            Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                            Zhenxin%Liao%NULL%0,                            Haojie%Huang%NULL%0,                            Boyue%Jiang%NULL%0,                            Xueyan%Zhang%NULL%0,                            Yingwen%Wang%NULL%0,                            Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                            Simeng%Ma%NULL%0,                            Min%Chen%NULL%0,                            Jun%Yang%NULL%0,                            Ying%Wang%NULL%0,                            Ruiting%Li%NULL%0,                            Lihua%Yao%NULL%0,                            Hanping%Bai%NULL%0,                            Zhongxiang%Cai%NULL%0,                            Bing%Xiang Yang%NULL%0,                            Shaohua%Hu%NULL%0,                            Kerang%Zhang%NULL%0,                            Gaohua%Wang%NULL%0,                            Ci%Ma%NULL%0,                            Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                            Ziwei%Fang%NULL%0,                            Guoqiang%Hou%NULL%0,                            Mei%Han%NULL%0,                            Xinrong%Xu%NULL%0,                            Jiaxin%Dong%NULL%0,                            Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                            Simeng%Ma%NULL%0,                            Ying%Wang%NULL%0,                            Zhongxiang%Cai%NULL%0,                            Jianbo%Hu%NULL%0,                            Ning%Wei%NULL%0,                            Jiang%Wu%NULL%0,                            Hui%Du%NULL%0,                            Tingting%Chen%NULL%0,                            Ruiting%Li%NULL%0,                            Huawei%Tan%NULL%0,                            Lijun%Kang%NULL%0,                            Lihua%Yao%NULL%0,                            Manli%Huang%NULL%0,                            Huafen%Wang%NULL%0,                            Gaohua%Wang%NULL%0,                            Zhongchun%Liu%NULL%0,                            Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                            Lan%Deng%NULL%0,                            Lan%Deng%NULL%0,                            Liyan%Zhang%NULL%0,                            Qiuyan%Lang%NULL%0,                            Chunyan%Liao%NULL%0,                            Nannan%Wang%NULL%0,                            Mingqin%Qin%2026142822@qq.com%0,                            Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                            Yilin%Wang%NULL%1,                            Jia%Xue%NULL%1,                            Nan%Zhao%NULL%1,                            Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                            Yun-zhi%Yang%NULL%1,                            Xiao-Ming%Zhang%NULL%1,                            Xinying%Xu%NULL%2,                            Xinying%Xu%NULL%0,                            Qing-Li%Dou%NULL%1,                            Wen-Wu%Zhang%NULL%1,                            Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                            Yan%Zhang%NULL%0,                            Desheng%Kong%NULL%0,                            Shiyue%Li%NULL%0,                            Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                            Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                            Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                            Elena%Del Fante%edelfante@hotmail.it%1,                            Rosanna%De Pace%Rosannadepace@libero.it%1,                            Antonino%Urso%antonino.urso@tin.it%1,                            Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The 18.7% of the sample revealed depressive symptomatology, the 21.6% anxiety and the 15.8% PSTD.
+</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0, Berta%Ausín%NULL%0, Miguel Ángel%Castellanos%NULL%0, Jesús%Saiz%NULL%0, Aída%López-Gómez%NULL%0, Carolina%Ugidos%NULL%0, Manuel%Muñoz%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The 2019 coronavirus disease (COVID-19) epidemic is a public health emergency of international concern and poses a challenge to psychological resilience.
+ Research data are needed to develop evidence-driven strategies to reduce adverse psychological impacts and psychiatric symptoms during the epidemic.
+ The aim of this study was to survey the general public in China to better understand their levels of psychological impact, anxiety, depression, and stress during the initial stage of the COVID-19 outbreak.
+ The data will be used for future reference.
+ Methods: From 31 January to 2 February 2020, we conducted an online survey using snowball sampling techniques.
+ The online survey collected information on demographic data, physical symptoms in the past 14 days, contact history with COVID-19, knowledge and concerns about COVID-19, precautionary measures against COVID-19, and additional information required with respect to COVID-19. Psychological impact was assessed by the Impact of Event Scale-Revised (IES-R), and mental health status was assessed by the Depression, Anxiety and Stress Scale (DASS-21).
+ Results: This study included 1210 respondents from 194 cities in China.
+ In total, 53.8% of respondents rated the psychological impact of the outbreak as moderate or severe; 16.5% reported moderate to severe depressive symptoms; 28.8% reported moderate to severe anxiety symptoms; and 8.1% reported moderate to severe stress levels.
+ Most respondents spent 20–24 h per day at home (84.7%); were worried about their family members contracting COVID-19 (75.2%); and were satisfied with the amount of health information available (75.1%).
+ Female gender, student status, specific physical symptoms (e.
+g.
+, myalgia, dizziness, coryza), and poor self-rated health status were significantly associated with a greater psychological impact of the outbreak and higher levels of stress, anxiety, and depression (p &amp;lt; 0.05).
+ Specific up-to-date and accurate health information (e.
+g.
+, treatment, local outbreak situation) and particular precautionary measures (e.
+g.
+, hand hygiene, wearing a mask) were associated with a lower psychological impact of the outbreak and lower levels of stress, anxiety, and depression (p &amp;lt; 0.05).
+ Conclusions: During the initial phase of the COVID-19 outbreak in China, more than half of the respondents rated the psychological impact as moderate-to-severe, and about one-third reported moderate-to-severe anxiety.
+ Our findings identify factors associated with a lower level of psychological impact and better mental health status that can be used to formulate psychological interventions to improve the mental health of vulnerable groups during the COVID-19 epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0, Riyu%Pan%NULL%0, Riyu%Pan%NULL%0, Xiaoyang%Wan%NULL%0, Yilin%Tan%NULL%0, Linkang%Xu%NULL%0, Cyrus S.%Ho%NULL%0, Roger C.%Ho%NULL%0, Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the epidemic outbreak of 2019 coronavirus disease (COVID-19), general population may experience psychological distress.
+ Evidence has suggested that negative coping styles may be related to subsequent mental illness.
+ Therefore, we investigate the general population’s psychological distress and coping styles in the early stages of the COVID-19 outbreak.
+ A cross-sectional battery of surveys was conducted from February 1–4, 2020. The Kessler 6 psychological distress scale, the simplified coping style questionnaire and a general information questionnaire were administered on-line to a convenience sample of 1599 in China.
+ A multiple linear regression analysis was performed to identify the influence factors of psychological distress.
+ General population’s psychological distress were significant differences based on age, marriage, epidemic contact characteristics, concern with media reports, and perceived impacts of the epidemic outbreak (all p &amp;lt;0.001) except gender (p = 0.316).
+ The population with younger age (F = 102.04), unmarried (t = 15.28), with history of visiting Wuhan in the past month (t = -40.86), with history of epidemics occurring in the community (t = -10.25), more concern with media reports (F = 21.84), perceived more impacts of the epidemic outbreak (changes over living situations, F = 331.71; emotional control, F = 1863.07; epidemic-related dreams, F = 1642.78) and negative coping style (t = 37.41) had higher level of psychological distress.
+ Multivariate analysis found that marriage, epidemic contact characteristics, perceived impacts of the epidemic and coping style were the influence factors of psychological distress (all p &amp;lt;0.001).
+ Epidemic of COVID-19 caused high level of psychological distress.
+ The general mainland Chinese population with unmarried, history of visiting Wuhan in the past month, perceived more impacts of the epidemic and negative coping style had higher level of psychological distress in the early stages of COVID-19 epidemic.
+ Psychological interventions should be implemented early, especially for those general population with such characteristics.
+</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%0, Qian%Xia%NULL%1, Zhenzhen%Xiong%NULL%1, Zhixiong%Li%NULL%1, Weiyi%Xiang%NULL%1, Yiwen%Yuan%NULL%1, Yaya%Liu%NULL%1, Zhe%Li%NULL%2, Kenji%Hashimoto%NULL%0, Kenji%Hashimoto%NULL%0, Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%0, Jun%Wang%NULL%0, Chenggang%Luo%NULL%1, Sheng%Hu%NULL%1, Xi%Lin%NULL%1, Aimee E.%Anderson%NULL%1, Eduardo%Bruera%NULL%1, Xiaoxin%Yang%NULL%1, Shaozhong%Wei%NULL%1, Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>American Academy of Hospice and Palliative Medicine. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our study aimed to investigate the immediate impact of the COVID-19 pandemic on mental health and quality of life among local Chinese residents aged ≥18 years in Liaoning Province, mainland China.
+ An online survey was distributed through a social media platform between January and February 2020. Participants completed a modified validated questionnaire that assessed the Impact of Event Scale (IES), indicators of negative mental health impacts, social and family support, and mental health-related lifestyle changes.
+ A total of 263 participants (106 males and 157 females) completed the study.
+ The mean age of the participants was 37.7 ± 14.0 years, and 74.9% had a high level of education.
+ The mean IES score in the participants was 13.6 ± 7.7, reflecting a mild stressful impact.
+ Only 7.6% of participants had an IES score ≥26. The majority of participants (53.3%) did not feel helpless due to the pandemic.
+ On the other hand, 52.1% of participants felt horrified and apprehensive due to the pandemic.
+ Additionally, the majority of participants (57.8–77.9%) received increased support from friends and family members, increased shared feeling and caring with family members and others.
+ In conclusion, the COVID-19 pandemic was associated with mild stressful impact in our sample, even though the COVID-19 pandemic is still ongoing.
+ These findings would need to be verified in larger population studies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              A significant reduction in psychological impact 4 weeks after COVID outbreak.
+</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0, Riyu%Pan%NULL%0, Xiaoyang%Wan%NULL%0, Yilin%Tan%NULL%0, Linkang%Xu%NULL%0, Roger S.%McIntyre%NULL%0, Faith N.%Choo%NULL%0, Bach%Tran%NULL%0, Roger%Ho%NULL%0, Vijay K.%Sharma%NULL%0, Cyrus%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health clinicians worldwide have been expressing concerns regarding the broad psychological effects of the COVID-19 pandemic.
+ Nonetheless, only a few studies have thus far evaluated the degree of fear of COVID-19, partially due to the lack of validated measures.
+ In this study we evaluated the psychometric properties of the Hebrew version of the Fear of COVID-19 scale (FCV-19S), recently developed to assess different aspects of the fear of the pandemic, in a normative population of participants in Israel.
+ Participants (n = 639) were asked to complete the FCV-19S scale, as well as to report anxiety, depression, and stress levels using validated scales.
+ The results a unidimensional factor structure of the FCV-19S which explained 53.71% of the variance.
+ When forcing a two-factor structure model, the analysis revealed two factors pertaining to emotional fear reactions and symptomatic expressions of fear.
+ Gender, sociodemographic status, chronic illness, being in an at-risk group, and having a family member dying of COVID-19 were positively associated with fear of COVID-19. The measure was associated with anxiety, stress and depression.
+ These results suggest that the FCV-19S has good psychometric properties, and can be utilized in studies assessing the effects of the pandemic on the population's mental health.
+</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%0, Ariella%Grossman-Giron%NULL%2, Yuval%Bloch%NULL%2, Yael%Mayer%NULL%2, Noga%Shiffman%NULL%2, Shlomo%Mendlovic%NULL%2]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%0, Philip J.%Corr%NULL%2, Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%0, Li-Gang%Zhang%NULL%4, Lei-Lei%Wang%NULL%4, Zhao-Chang%Guo%NULL%4, Jing-Qi%Wang%NULL%4, Jin-Cheng%Chen%NULL%4, Mei%Liu%NULL%4, Xi%Chen%NULL%0, Jing-Xu%Chen%chenjx1110@163.com%4]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0, Baoren%Tu%NULL%0, Jing%Ma%NULL%0, Limin%Chen%NULL%0, Lei%Fu%NULL%0, Yongfang%Jiang%NULL%0, Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>International Scientific Literature, Inc.</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%0, Xiaoming%Huang%NULL%1, Shuai%Zhang%NULL%0, Jinrong%Yang%NULL%1, Lin%Yang%NULL%0, Min%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0, Zhenxin%Liao%NULL%0, Haojie%Huang%NULL%0, Boyue%Jiang%NULL%0, Xueyan%Zhang%NULL%0, Yingwen%Wang%NULL%0, Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Medical staff experience mental health disturb during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0, Simeng%Ma%NULL%0, Min%Chen%NULL%0, Jun%Yang%NULL%0, Ying%Wang%NULL%0, Ruiting%Li%NULL%0, Lihua%Yao%NULL%0, Hanping%Bai%NULL%0, Zhongxiang%Cai%NULL%0, Bing%Xiang Yang%NULL%0, Shaohua%Hu%NULL%0, Kerang%Zhang%NULL%0, Gaohua%Wang%NULL%0, Ci%Ma%NULL%0, Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0, Ziwei%Fang%NULL%0, Guoqiang%Hou%NULL%0, Mei%Han%NULL%0, Xinrong%Xu%NULL%0, Jiaxin%Dong%NULL%0, Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0, Simeng%Ma%NULL%0, Ying%Wang%NULL%0, Zhongxiang%Cai%NULL%0, Jianbo%Hu%NULL%0, Ning%Wei%NULL%0, Jiang%Wu%NULL%0, Hui%Du%NULL%0, Tingting%Chen%NULL%0, Ruiting%Li%NULL%0, Huawei%Tan%NULL%0, Lijun%Kang%NULL%0, Lihua%Yao%NULL%0, Manli%Huang%NULL%0, Huafen%Wang%NULL%0, Gaohua%Wang%NULL%0, Zhongchun%Liu%NULL%0, Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0, Lan%Deng%NULL%0, Lan%Deng%NULL%0, Liyan%Zhang%NULL%0, Qiuyan%Lang%NULL%0, Chunyan%Liao%NULL%0, Nannan%Wang%NULL%0, Mingqin%Qin%2026142822@qq.com%0, Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 (Corona Virus Disease 2019) has significantly resulted in a large number of psychological consequences.
+ The aim of this study is to explore the impacts of COVID-19 on people’s mental health, to assist policy makers to develop actionable policies, and help clinical practitioners (e.
+g.
+, social workers, psychiatrists, and psychologists) provide timely services to affected populations.
+ We sample and analyze the Weibo posts from 17,865 active Weibo users using the approach of Online Ecological Recognition (OER) based on several machine-learning predictive models.
+ We calculated word frequency, scores of emotional indicators (e.
+g.
+, anxiety, depression, indignation, and Oxford happiness) and cognitive indicators (e.
+g.
+, social risk judgment and life satisfaction) from the collected data.
+ The sentiment analysis and the paired sample t-test were performed to examine the differences in the same group before and after the declaration of COVID-19 on 20 January, 2020. The results showed that negative emotions (e.
+g.
+, anxiety, depression and indignation) and sensitivity to social risks increased, while the scores of positive emotions (e.
+g.
+, Oxford happiness) and life satisfaction decreased.
+ People were concerned more about their health and family, while less about leisure and friends.
+ The results contribute to the knowledge gaps of short-term individual changes in psychological conditions after the outbreak.
+ It may provide references for policy makers to plan and fight against COVID-19 effectively by improving stability of popular feelings and urgently prepare clinical practitioners to deliver corresponding therapy foundations for the risk groups and affected people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) outbreak caused by the severe acute respiratory syndrome coronavirus 2 (SARS-Cov-2 virus) has been sustained in China since December 2019, and has become a pandemic.
+ The mental health of frontline medical staff is a concern.
+ In this study, we aimed to identify the factors influencing medical worker anxiety in China during the COVID-19 outbreak.
+ We conducted a cross-sectional study to estimate the prevalence of anxiety among medical staff in China from 10 February 2020 to 20 February 2020 using the Zung Self-rating Anxiety Scale (SAS) to assess anxiety, with the criteria of normal (⩽49), mild (50–59), moderate (60–70) and severe anxiety (⩾70).
+ We used multivariable linear regression to determine the factors (e.
+g.
+ having direct contact when treating infected patients, being a medical staff worker from Hubei province, being a suspect case) for anxiety.
+ We also used adjusted models to confirm independent factors for anxiety after adjusting for gender, age, education and marital status.
+ Of 512 medical staff in China, 164 (32.03%) had had direct contact treating infected patients.
+ The prevalence of anxiety was 12.5%, with 53 workers suffering from mild (10.35%), seven workers suffering from moderate (1.36%) and four workers suffering from severe anxiety (0.78%).
+ After adjusting for sociodemographic characteristics (gender, age, education and marital status), medical staff who had had direct contact treating infected patients experienced higher anxiety scores than those who had not had direct contact (β value = 2.33, confidence interval (CI) 0.65–4.00; P = 0.0068).
+ A similar trend was observed in medical staff from Hubei province, compared with those from other parts of China (β value = 3.67, CI 1.44–5.89; P = 0.0013).
+ The most important variable was suspect cases with high anxiety scores, compared to non-suspect cases (β value = 4.44, CI 1.55–7.33; P = 0.0028).
+ In this survey of hospital medical workers during the COVID-19 outbreak in China, we found that study participants experienced anxiety symptoms, especially those who had direct clinical contact with infected patients; as did those in the worst affected areas, including Hubei province; and those who were suspect cases.
+ Governments and healthcare authorities should proactively implement appropriate psychological intervention programmes, to prevent, alleviate or treat increased anxiety.
+</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0, Yun-zhi%Yang%NULL%0, Xiao-Ming%Zhang%NULL%0, Xinying%Xu%NULL%0, Xinying%Xu%NULL%0, Qing-Li%Dou%NULL%0, Wen-Wu%Zhang%NULL%0, Andy S. K.%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0, Yan%Zhang%NULL%0, Desheng%Kong%NULL%0, Shiyue%Li%NULL%0, Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%0, Ambra%Ferrari%a.ferrari50@campus.unimib.it%2, Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%2, Elena%Del Fante%edelfante@hotmail.it%2, Rosanna%De Pace%Rosannadepace@libero.it%2, Antonino%Urso%antonino.urso@tin.it%2, Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
   </si>
 </sst>
 </file>
@@ -2763,10 +3090,10 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>753</v>
       </c>
       <c r="E2" t="s">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2778,10 +3105,10 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3">
@@ -2795,10 +3122,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>756</v>
       </c>
       <c r="E3" t="s">
-        <v>690</v>
+        <v>757</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2810,10 +3137,10 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
@@ -2827,10 +3154,10 @@
         <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>759</v>
       </c>
       <c r="E4" t="s">
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2842,10 +3169,10 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
@@ -2856,28 +3183,28 @@
         <v>44197.0</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>558</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>165</v>
       </c>
       <c r="J5" t="s">
-        <v>559</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -2894,7 +3221,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2906,10 +3233,10 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7">
@@ -2923,10 +3250,10 @@
         <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>764</v>
       </c>
       <c r="E7" t="s">
-        <v>693</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2938,10 +3265,10 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8">
@@ -2952,22 +3279,22 @@
         <v>43920.0</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>694</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>695</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>668</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>669</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>165</v>
@@ -2987,10 +3314,10 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>765</v>
       </c>
       <c r="E9" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -3002,10 +3329,10 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>165</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10">
@@ -3019,10 +3346,10 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>767</v>
       </c>
       <c r="E10" t="s">
-        <v>697</v>
+        <v>768</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -3034,10 +3361,10 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11">
@@ -3048,22 +3375,22 @@
         <v>43910.0</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>698</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>699</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>668</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>675</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
         <v>165</v>
@@ -3086,7 +3413,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -3098,10 +3425,10 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13">
@@ -3118,7 +3445,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>772</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -3130,10 +3457,10 @@
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>517</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14">
@@ -3150,7 +3477,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>702</v>
+        <v>774</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -3162,10 +3489,10 @@
         <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15">
@@ -3176,28 +3503,28 @@
         <v>43951.0</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>558</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
         <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>568</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -3214,7 +3541,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>703</v>
+        <v>776</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -3226,10 +3553,10 @@
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17">
@@ -3246,7 +3573,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -3258,10 +3585,10 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18">
@@ -3275,10 +3602,10 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>778</v>
       </c>
       <c r="E18" t="s">
-        <v>705</v>
+        <v>779</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3290,10 +3617,10 @@
         <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19">
@@ -3310,7 +3637,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>706</v>
+        <v>780</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -3322,10 +3649,10 @@
         <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>505</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20">
@@ -3342,7 +3669,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>707</v>
+        <v>782</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -3354,10 +3681,10 @@
         <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21">
@@ -3374,7 +3701,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>708</v>
+        <v>784</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3386,10 +3713,10 @@
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22">
@@ -3403,10 +3730,10 @@
         <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>785</v>
       </c>
       <c r="E22" t="s">
-        <v>709</v>
+        <v>122</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3418,10 +3745,10 @@
         <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23">
@@ -3435,10 +3762,10 @@
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>786</v>
       </c>
       <c r="E23" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3450,10 +3777,10 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24">
@@ -3470,7 +3797,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3482,10 +3809,10 @@
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25">
@@ -3496,28 +3823,28 @@
         <v>42076.0</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
         <v>165</v>
       </c>
       <c r="J25" t="s">
-        <v>559</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -3534,7 +3861,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
@@ -3546,10 +3873,10 @@
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>517</v>
+        <v>165</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
